--- a/imgsolver/model_trainer/model_metric_logs/operator_class_v42024-11-09.model.keras_metrics.xlsx
+++ b/imgsolver/model_trainer/model_metric_logs/operator_class_v42024-11-09.model.keras_metrics.xlsx
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4219261109828949</v>
+        <v>0.4806373119354248</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9264000058174133</v>
+        <v>0.9164574146270752</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7330882352941176</v>
+        <v>0.5114401076716016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.997</v>
+        <v>0.9973753280839895</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8449152542372881</v>
+        <v>0.6761565836298933</v>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4">
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9970059880239521</v>
+        <v>0.999</v>
       </c>
       <c r="C4" t="n">
         <v>0.999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.998001998001998</v>
+        <v>0.999</v>
       </c>
       <c r="E4" t="n">
         <v>1000</v>
@@ -605,16 +605,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9264</v>
+        <v>0.9164574298105456</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9264</v>
+        <v>0.9164574298105456</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9264</v>
+        <v>0.9164574298105456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9264</v>
+        <v>0.9164574298105456</v>
       </c>
     </row>
     <row r="8">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9456190444638137</v>
+        <v>0.9016882213345202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9263999999999999</v>
+        <v>0.9264750656167979</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9239340807527414</v>
+        <v>0.8903819470308628</v>
       </c>
       <c r="E8" t="n">
-        <v>5000</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="9">
@@ -643,16 +643,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9456190444638137</v>
+        <v>0.9568271353626751</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9264</v>
+        <v>0.9164574298105456</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9239340807527414</v>
+        <v>0.920650264754031</v>
       </c>
       <c r="E9" t="n">
-        <v>5000</v>
+        <v>4381</v>
       </c>
     </row>
   </sheetData>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>997</v>
+        <v>380</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
